--- a/DataScientist Path.xlsx
+++ b/DataScientist Path.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INTRODUCTION" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="241">
   <si>
     <t>INTRODUCTION</t>
   </si>
@@ -125,9 +125,6 @@
     <t>PREDICTIVE MODELLING</t>
   </si>
   <si>
-    <t>ANOVA/ REGRESSION ANALYSIS</t>
-  </si>
-  <si>
     <t>Decision Trees and Neural Networks</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
   </si>
   <si>
     <t>Check the Prediction Accuracy</t>
-  </si>
-  <si>
-    <t>TREE AND BAYESIAN NETWORK MODELS</t>
   </si>
   <si>
     <t>Decision Trees, Bagging</t>
@@ -723,13 +717,57 @@
   </si>
   <si>
     <t>https://data-flair.training/blogs/best-books-on-data-science/</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/datasciencemathskills/home/welcome</t>
+  </si>
+  <si>
+    <t>https://www.analyticsvidhya.com/blog/2018/01/anova-analysis-of-variance/</t>
+  </si>
+  <si>
+    <t>TREE AND BAYESIAN 
+NETWORK MODELS</t>
+  </si>
+  <si>
+    <t>ANOVA/ REGRESSION 
+ANALYSIS</t>
+  </si>
+  <si>
+    <t>https://onlinecourses.science.psu.edu/stat500/node/12/</t>
+  </si>
+  <si>
+    <t>https://www.listendata.com/2013/02/descriptive-statistics-using-excel.html</t>
+  </si>
+  <si>
+    <t>DESCRIPTIVE STATISTICS USING EXCEL</t>
+  </si>
+  <si>
+    <t>https://www.analyticsvidhya.com/blog/2017/09/6-probability-distributions-data-science/</t>
+  </si>
+  <si>
+    <t>6 Common Probability Distributions every data science professional should know</t>
+  </si>
+  <si>
+    <t>https://onlinecourses.science.psu.edu/stat505/node/18/</t>
+  </si>
+  <si>
+    <t>https://in.mathworks.com/help/stats/analysis-of-variance-and-covariance.html</t>
+  </si>
+  <si>
+    <t>https://in.mathworks.com/help/stats/one-way-anova.html</t>
+  </si>
+  <si>
+    <t>https://www.analyticsvidhya.com/blog/2015/08/comprehensive-guide-regression/</t>
+  </si>
+  <si>
+    <t>https://onlinecourses.science.psu.edu/stat502/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,6 +794,14 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -827,10 +873,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -849,38 +896,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -924,8 +953,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1205,22 +1258,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="78.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1236,9 +1290,10 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="F1" s="30"/>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1249,36 +1304,42 @@
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="F2" s="32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
       <c r="B3" s="13"/>
       <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="F3" s="33"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
       <c r="B4" s="13"/>
       <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="F4" s="33"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
       <c r="B5" s="13"/>
       <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="F5" s="33"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
       <c r="B6" s="13" t="s">
         <v>11</v>
       </c>
@@ -1286,270 +1347,329 @@
         <v>12</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="E6" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="33"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
       <c r="B7" s="13"/>
       <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="F7" s="33"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
       <c r="B8" s="13"/>
       <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="F8" s="33"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
       <c r="B9" s="13"/>
       <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="E9" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="F9" s="33"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
       <c r="B10" s="13"/>
       <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="E10" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
       <c r="B11" s="13"/>
       <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="E11" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
       <c r="B12" s="13"/>
       <c r="C12" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="13" t="s">
-        <v>31</v>
+      <c r="E12" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="14" t="s">
+        <v>230</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="E13" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
       <c r="B14" s="13"/>
       <c r="C14" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="E14" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="F14" s="35"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
       <c r="B15" s="13"/>
       <c r="C15" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="E15" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="F15" s="35"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
       <c r="B16" s="13"/>
       <c r="C16" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="E16" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16" s="35"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
       <c r="B17" s="13"/>
       <c r="C17" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="F17" s="35"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
       <c r="B18" s="13"/>
       <c r="C18" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="F18" s="35"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
       <c r="B19" s="13"/>
       <c r="C19" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="F19" s="35"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
       <c r="B20" s="13"/>
       <c r="C20" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="F20" s="35"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
       <c r="B21" s="13"/>
       <c r="C21" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="F21" s="35"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
       <c r="B22" s="13"/>
       <c r="C22" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="E22" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="F22" s="35"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
       <c r="B23" s="13"/>
       <c r="C23" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+      <c r="F23" s="35"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
       <c r="B24" s="13"/>
       <c r="C24" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+      <c r="F24" s="35"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
       <c r="B25" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="F25" s="30"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
       <c r="B26" s="14"/>
       <c r="C26" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
       <c r="B27" s="14"/>
       <c r="C27" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="F27" s="30"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="31"/>
       <c r="B28" s="14"/>
       <c r="C28" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+      <c r="F28" s="30"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
       <c r="B29" s="14"/>
       <c r="C29" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="18" t="s">
-        <v>37</v>
+      <c r="F29" s="30"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="B30" s="36" t="s">
+        <v>229</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="19"/>
+      <c r="F30" s="30"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="20"/>
+      <c r="F31" s="30"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="18" t="s">
-        <v>41</v>
+      <c r="F32" s="30"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="31"/>
+      <c r="B33" s="37" t="s">
+        <v>39</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="12" t="s">
-        <v>43</v>
+      <c r="F33" s="30"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="31"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
+      <c r="F34" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="F13:F24"/>
+    <mergeCell ref="F2:F9"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B12"/>
     <mergeCell ref="B13:B24"/>
@@ -1558,18 +1678,32 @@
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B33:B34"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E15" r:id="rId2"/>
+    <hyperlink ref="E9" r:id="rId3"/>
+    <hyperlink ref="E10" r:id="rId4"/>
+    <hyperlink ref="E12" r:id="rId5"/>
+    <hyperlink ref="F11" r:id="rId6" display="https://onlinecourses.science.psu.edu/stat505/node/18/"/>
+    <hyperlink ref="E13" r:id="rId7"/>
+    <hyperlink ref="E14" r:id="rId8"/>
+    <hyperlink ref="E16" r:id="rId9"/>
+    <hyperlink ref="E22" r:id="rId10"/>
+    <hyperlink ref="F2" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,7 +1713,7 @@
     <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1595,610 +1729,675 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="F1" s="30"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="F2" s="30"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
       <c r="B3" s="13"/>
       <c r="C3" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
       <c r="B4" s="13"/>
       <c r="C4" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="F4" s="30"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
       <c r="B5" s="13"/>
       <c r="C5" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="F5" s="30"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
       <c r="B6" s="13"/>
       <c r="C6" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
       <c r="B7" s="13"/>
       <c r="C7" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="F7" s="30"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
       <c r="B8" s="13"/>
       <c r="C8" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
       <c r="B9" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="F9" s="30"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
       <c r="B10" s="13"/>
       <c r="C10" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
       <c r="B11" s="13"/>
       <c r="C11" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="F11" s="30"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
       <c r="B12" s="13"/>
       <c r="C12" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="F12" s="30"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
       <c r="B13" s="13"/>
       <c r="C13" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="F13" s="30"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
       <c r="B14" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
       <c r="B15" s="13"/>
       <c r="C15" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="F15" s="30"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
       <c r="B16" s="13"/>
       <c r="C16" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="F16" s="30"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
       <c r="B17" s="13"/>
       <c r="C17" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
       <c r="B18" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
       <c r="B19" s="14"/>
       <c r="C19" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="F19" s="30"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
       <c r="B20" s="14"/>
       <c r="C20" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
       <c r="B21" s="14"/>
       <c r="C21" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="F21" s="30"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
       <c r="B22" s="14"/>
       <c r="C22" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
       <c r="B23" s="14"/>
       <c r="C23" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+      <c r="F23" s="30"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
       <c r="B24" s="14"/>
       <c r="C24" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+      <c r="F24" s="30"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
       <c r="B25" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="F25" s="30"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
       <c r="B26" s="13"/>
       <c r="C26" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
       <c r="B27" s="13"/>
       <c r="C27" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="F27" s="30"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="31"/>
       <c r="B28" s="13"/>
       <c r="C28" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+      <c r="F28" s="30"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
       <c r="B29" s="13"/>
       <c r="C29" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
+      <c r="F29" s="30"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
       <c r="B30" s="13"/>
       <c r="C30" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
+      <c r="F30" s="30"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
       <c r="B31" s="13"/>
       <c r="C31" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
+      <c r="F31" s="30"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
       <c r="B32" s="13"/>
       <c r="C32" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
+      <c r="F32" s="30"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="31"/>
       <c r="B33" s="13"/>
       <c r="C33" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
+      <c r="F33" s="30"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="31"/>
       <c r="B34" s="13"/>
       <c r="C34" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
+      <c r="F34" s="30"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="31"/>
       <c r="B35" s="13"/>
       <c r="C35" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
+      <c r="F35" s="30"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="31"/>
       <c r="B36" s="13"/>
       <c r="C36" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="22" t="s">
-        <v>84</v>
+      <c r="F36" s="30"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="31"/>
+      <c r="B37" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="22"/>
+      <c r="F37" s="30"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="31"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="22"/>
+      <c r="F38" s="30"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="31"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="22"/>
+      <c r="F39" s="30"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="31"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="22"/>
+      <c r="F40" s="30"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="31"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="10" t="s">
-        <v>90</v>
+      <c r="F41" s="30"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="31"/>
+      <c r="B42" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="22" t="s">
-        <v>92</v>
+      <c r="F42" s="30"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="31"/>
+      <c r="B43" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="22"/>
+      <c r="F43" s="30"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="31"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="22"/>
+      <c r="F44" s="30"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="31"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="22"/>
+      <c r="F45" s="30"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="31"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="22"/>
+      <c r="F46" s="30"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="31"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="22"/>
+      <c r="F47" s="30"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="31"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
+      <c r="F48" s="30"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="31"/>
       <c r="B49" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="21" t="s">
-        <v>101</v>
+      <c r="F49" s="30"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="31"/>
+      <c r="B50" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="21"/>
+      <c r="F50" s="30"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="31"/>
+      <c r="B51" s="15"/>
       <c r="C51" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
-      <c r="B52" s="21"/>
+      <c r="F51" s="30"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="31"/>
+      <c r="B52" s="15"/>
       <c r="C52" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-      <c r="B53" s="21"/>
+      <c r="F52" s="30"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="31"/>
+      <c r="B53" s="15"/>
       <c r="C53" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="21"/>
+      <c r="F53" s="30"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="31"/>
+      <c r="B54" s="15"/>
       <c r="C54" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="21"/>
+      <c r="F54" s="30"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="31"/>
+      <c r="B55" s="15"/>
       <c r="C55" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="21"/>
+      <c r="F55" s="30"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="31"/>
+      <c r="B56" s="15"/>
       <c r="C56" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="21"/>
+      <c r="F56" s="30"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="31"/>
+      <c r="B57" s="15"/>
       <c r="C57" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
-      <c r="B58" s="21"/>
+      <c r="F57" s="30"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="31"/>
+      <c r="B58" s="15"/>
       <c r="C58" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="21" t="s">
-        <v>111</v>
+      <c r="F58" s="30"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="31"/>
+      <c r="B59" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="21"/>
+      <c r="F59" s="30"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="31"/>
+      <c r="B60" s="15"/>
       <c r="C60" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
-      <c r="B61" s="21"/>
+      <c r="F60" s="30"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="31"/>
+      <c r="B61" s="15"/>
       <c r="C61" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
+      <c r="F61" s="30"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="31"/>
       <c r="B62" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
-      <c r="B63" s="21" t="s">
-        <v>117</v>
+      <c r="F62" s="30"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="31"/>
+      <c r="B63" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
-      <c r="B64" s="21"/>
+      <c r="F63" s="30"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="31"/>
+      <c r="B64" s="15"/>
       <c r="C64" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
-      <c r="B65" s="21"/>
+      <c r="F64" s="30"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="31"/>
+      <c r="B65" s="15"/>
       <c r="C65" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
+      <c r="F65" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2252,242 +2451,242 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="13"/>
       <c r="C3" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="13"/>
       <c r="C4" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="13"/>
       <c r="C5" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="13"/>
       <c r="C7" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="13"/>
       <c r="C8" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="13"/>
       <c r="C9" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="13"/>
       <c r="C10" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="13"/>
       <c r="C11" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="21" t="s">
-        <v>134</v>
+      <c r="A12" s="18"/>
+      <c r="B12" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="26" t="s">
-        <v>143</v>
+      <c r="A21" s="18"/>
+      <c r="B21" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2528,7 +2727,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -2538,339 +2737,339 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="21" t="s">
-        <v>162</v>
+      <c r="A8" s="22"/>
+      <c r="B8" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="22" t="s">
-        <v>169</v>
+      <c r="A14" s="22"/>
+      <c r="B14" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="22" t="s">
-        <v>174</v>
+      <c r="A18" s="22"/>
+      <c r="B18" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="22"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="22" t="s">
-        <v>183</v>
+      <c r="A26" s="22"/>
+      <c r="B26" s="16" t="s">
+        <v>181</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="22"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="22"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="22"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="22"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -2912,7 +3111,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -2922,135 +3121,135 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="30" t="s">
-        <v>205</v>
+      <c r="A8" s="26"/>
+      <c r="B8" s="24" t="s">
+        <v>203</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -3088,7 +3287,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -3098,63 +3297,63 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>215</v>
+      <c r="A2" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>213</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="30"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3181,22 +3380,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
